--- a/txt_files/Fleet9_CCFRP_IndexData.xlsx
+++ b/txt_files/Fleet9_CCFRP_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16037" windowHeight="6514" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AIC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -64,9 +64,6 @@
     <t>AIC</t>
   </si>
   <si>
-    <t>\textbf{22341}</t>
-  </si>
-  <si>
     <t>Remove missing data and cells not sampled consistently at Piedras Blancas</t>
   </si>
   <si>
@@ -79,14 +76,35 @@
     <t>Remove cells that never encountered GBYR</t>
   </si>
   <si>
-    <t>Remove 5 m depth bins with little or no sampling (keep 5-39 m)</t>
+    <t>23,212</t>
+  </si>
+  <si>
+    <t>23,214</t>
+  </si>
+  <si>
+    <t>22,901</t>
+  </si>
+  <si>
+    <t>22,642</t>
+  </si>
+  <si>
+    <t>\textbf{22,341}</t>
+  </si>
+  <si>
+    <t>Remove depth bins with little or no sampling (keep 5-39 m)</t>
+  </si>
+  <si>
+    <t>3,857</t>
+  </si>
+  <si>
+    <t>3,848</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
@@ -133,10 +144,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,57 +442,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>23212</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>23214</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>22901</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>22642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -494,16 +497,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.07421875" customWidth="1"/>
+    <col min="2" max="2" width="9.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -514,48 +518,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5886</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4942</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
-        <v>5886</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4942</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>4934</v>
       </c>
-      <c r="C4" s="3">
-        <v>3857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
         <v>4920</v>
       </c>
-      <c r="C5" s="3">
-        <v>3848</v>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -567,13 +571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -595,7 +599,7 @@
         <v>0.153150196836742</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -606,7 +610,7 @@
         <v>0.15500349351685999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -617,7 +621,7 @@
         <v>0.156011822437158</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -628,7 +632,7 @@
         <v>0.15554277505705699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -639,7 +643,7 @@
         <v>0.15674816861844099</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -650,7 +654,7 @@
         <v>0.15460411912853</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -661,7 +665,7 @@
         <v>0.15872598023888099</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -672,7 +676,7 @@
         <v>0.15474468350745099</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -683,7 +687,7 @@
         <v>0.15991327426552801</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -694,7 +698,7 @@
         <v>0.15554329801528399</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -705,7 +709,7 @@
         <v>0.15669695466310199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2018</v>
       </c>

--- a/txt_files/Fleet9_CCFRP_IndexData.xlsx
+++ b/txt_files/Fleet9_CCFRP_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16037" windowHeight="6514" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16037" windowHeight="6514"/>
   </bookViews>
   <sheets>
     <sheet name="AIC" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -481,12 +481,6 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -497,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
